--- a/report.xlsx
+++ b/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\Основы программирования\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\Основы программирования\урок47\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,36 +19,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>Сотрудник</t>
-  </si>
-  <si>
-    <t>Янв</t>
-  </si>
-  <si>
-    <t>Фев</t>
-  </si>
-  <si>
-    <t>Март</t>
-  </si>
-  <si>
-    <t>Итого</t>
-  </si>
-  <si>
-    <t>Среднее</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Elon</t>
-  </si>
-  <si>
-    <t>Mark</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Автор</t>
+  </si>
+  <si>
+    <t>Название книги</t>
+  </si>
+  <si>
+    <t>Год издания</t>
+  </si>
+  <si>
+    <t>Агния Барто</t>
+  </si>
+  <si>
+    <t>Стихи для детей</t>
+  </si>
+  <si>
+    <t>Алан Александр Милн</t>
+  </si>
+  <si>
+    <t>Винни-Пух</t>
+  </si>
+  <si>
+    <t>Александр Волков</t>
+  </si>
+  <si>
+    <t>Волшебник Изумрудного города</t>
   </si>
 </sst>
 </file>
@@ -388,15 +385,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A5" sqref="A5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,127 +408,38 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1928</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>44</v>
-      </c>
-      <c r="C2">
-        <v>32</v>
-      </c>
-      <c r="D2">
-        <v>56</v>
-      </c>
-      <c r="E2">
-        <f>SUM(B2,C2,D2)</f>
-        <v>132</v>
-      </c>
-      <c r="F2">
-        <f>AVERAGE(B2,C2,D2)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>95</v>
-      </c>
-      <c r="D3">
-        <v>74</v>
-      </c>
-      <c r="E3">
-        <f>SUM(B3,C3,D3)</f>
-        <v>179</v>
-      </c>
-      <c r="F3">
-        <f>AVERAGE(B3,C3,D3)</f>
-        <v>59.666666666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
-        <v>150</v>
-      </c>
-      <c r="D4">
-        <v>175</v>
-      </c>
-      <c r="E4">
-        <f>SUM(B4,C4,D4)</f>
-        <v>325</v>
-      </c>
-      <c r="F4">
-        <f>AVERAGE(B4,C4,D4)</f>
-        <v>108.33333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>78</v>
-      </c>
-      <c r="C5">
-        <v>67</v>
-      </c>
-      <c r="D5">
-        <v>86</v>
-      </c>
-      <c r="E5">
-        <f>SUM(B5,C5,D5)</f>
-        <v>231</v>
-      </c>
-      <c r="F5">
-        <f>AVERAGE(B5,C5,D5)</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <f>SUM(B2:B5)</f>
-        <v>132</v>
-      </c>
-      <c r="C6">
-        <f>SUM(C2:C5)</f>
-        <v>344</v>
-      </c>
-      <c r="D6">
-        <f>SUM(D2:D5)</f>
-        <v>391</v>
-      </c>
-      <c r="E6">
-        <f>SUM(E2:E5)</f>
-        <v>867</v>
-      </c>
-      <c r="F6">
-        <f>SUM(F2:F5)</f>
-        <v>289</v>
+        <v>1939</v>
       </c>
     </row>
   </sheetData>
